--- a/biology/Zoologie/Gourami_miel/Gourami_miel.xlsx
+++ b/biology/Zoologie/Gourami_miel/Gourami_miel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichogaster chuna
 Le Gourami miel (Trichogaster chuna) est un poisson d'eau douce originaire d'Asie que l'on élève aussi comme poisson d'aquarium. C'est un poisson très calme, dénué d'agressivité, dont le mâle est très coloré.
@@ -514,15 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-L'espèce présente un dimorphisme sexuel important. Il est très facile de différencier les sexes : les mâles sont jaune-orange vif, avec la nageoire dorsale jaune vif et le dessous du ventre noir velouté, orange et bleu sur le cou, alors que les femelles sont presque uniformément brun clair. Ce gourami mesure 5 cm de longueur environ.
-Reproduction
-Cette espèce est ovipare.
-Le mâle construit un nid de feuilles flottantes puis il frétille devant la femelle, le museau vers la surface. Il finit par l'enlacer sous le nid pour l'aider à pondre les œufs dont il s'occupe ensuite jusqu'à la naissance des alevins.
-Les jeunes mangent des nourritures microscopiques.
-Ils vivent deux à trois ans.
-Habitat naturel
-L'espèce est originaire du Bangladesh et de l'Assam. Elle aime les eaux douces où il n'y a pas de courant.
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce présente un dimorphisme sexuel important. Il est très facile de différencier les sexes : les mâles sont jaune-orange vif, avec la nageoire dorsale jaune vif et le dessous du ventre noir velouté, orange et bleu sur le cou, alors que les femelles sont presque uniformément brun clair. Ce gourami mesure 5 cm de longueur environ.
 </t>
         </is>
       </c>
@@ -548,16 +558,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description et mode de vie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est ovipare.
+Le mâle construit un nid de feuilles flottantes puis il frétille devant la femelle, le museau vers la surface. Il finit par l'enlacer sous le nid pour l'aider à pondre les œufs dont il s'occupe ensuite jusqu'à la naissance des alevins.
+Les jeunes mangent des nourritures microscopiques.
+Ils vivent deux à trois ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gourami_miel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_miel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description et mode de vie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat naturel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire du Bangladesh et de l'Assam. Elle aime les eaux douces où il n'y a pas de courant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gourami_miel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_miel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ce petit poisson se rencontre assez souvent en aquariophilie, mais reste beaucoup moins populaire que d'autres espèces, probablement à cause de la couleur terne des juvéniles proposés à la vente et des femelles. Mais si le groupe contient des mâles, après quelques mois de patience, on est en présence d'un des poissons d'eau douce les plus colorés.
 Il n'aime pas le courant, mais aime bien les plantes de surface (Riccia fluitans), qui lui permettent de faire son nid. Il faut un bac de 60 litres minimum pour un couple (pour que la femelle puisse se cacher). Il cohabite facilement avec toutes les espèces calmes non prédatrices et n'est pas susceptible face à la CPO.
-Élevage
-Il mange toutes sortes de nourritures vivantes de petite taille (le mieux est de lui donner des vers de vase rouges), des flocons et nourritures sèches. Le strict minimum est de lui donner des flocons/granulés qui, peu importe les compléments ajoutés, devra tout de même constituer son régime alimentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gourami_miel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gourami_miel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mange toutes sortes de nourritures vivantes de petite taille (le mieux est de lui donner des vers de vase rouges), des flocons et nourritures sèches. Le strict minimum est de lui donner des flocons/granulés qui, peu importe les compléments ajoutés, devra tout de même constituer son régime alimentaire.
 La ponte est assez facile à obtenir dans un petit aquarium isolé avec des plantes de surface. Il convient de retirer la femelle quelques heures après la ponte et le mâle pas plus de 2 jours après la ponte, une fois qu'il se sera occupé des œufs, afin qu'il ne risque pas de manger les alevins. Sa reproduction est semblable à son cousin, le Combattant du Siam (Betta splendens), de la même famille.
 </t>
         </is>
